--- a/Ссылки.xlsx
+++ b/Ссылки.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Network</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>http://ciscotips.ru/ipv6-addresses</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>https://practicum.yandex.ru/blog/chto-takoe-protokol-http/#id2</t>
   </si>
 </sst>
 </file>
@@ -365,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,11 +403,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="C1" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4" location="id2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
